--- a/sql лабы/Форма ввода.xlsx
+++ b/sql лабы/Форма ввода.xlsx
@@ -1776,7 +1776,7 @@
         <v>26000</v>
       </c>
       <c r="E2" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v/>
       </c>
       <c r="H2">
-        <f>SUMIF(Выплаты!F:F,G2,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G2,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I2">
@@ -1828,7 +1828,7 @@
         <v/>
       </c>
       <c r="H3">
-        <f>SUMIF(Выплаты!F:F,G3,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G3,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I3">
@@ -1856,7 +1856,7 @@
         <v>40250</v>
       </c>
       <c r="E4" t="n">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v/>
       </c>
       <c r="H4">
-        <f>SUMIF(Выплаты!F:F,G4,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G4,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I4">
@@ -1908,7 +1908,7 @@
         <v/>
       </c>
       <c r="H5">
-        <f>SUMIF(Выплаты!F:F,G5,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G5,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I5">
@@ -1936,7 +1936,7 @@
         <v>22500</v>
       </c>
       <c r="E6" t="n">
-        <v>33060</v>
+        <v>330600</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v/>
       </c>
       <c r="H6">
-        <f>SUMIF(Выплаты!F:F,G6,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G6,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I6">
@@ -1988,7 +1988,7 @@
         <v/>
       </c>
       <c r="H7">
-        <f>SUMIF(Выплаты!F:F,G7,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G7,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I7">
@@ -2016,7 +2016,7 @@
         <v>15000</v>
       </c>
       <c r="E8" t="n">
-        <v>29580</v>
+        <v>295800</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v/>
       </c>
       <c r="H8">
-        <f>SUMIF(Выплаты!F:F,G8,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G8,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I8">
@@ -2068,7 +2068,7 @@
         <v/>
       </c>
       <c r="H9">
-        <f>SUMIF(Выплаты!F:F,G9,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G9,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I9">
@@ -2096,7 +2096,7 @@
         <v>30000</v>
       </c>
       <c r="E10" t="n">
-        <v>23055</v>
+        <v>230550</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v/>
       </c>
       <c r="H10">
-        <f>SUMIF(Выплаты!F:F,G10,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G10,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I10">
@@ -2148,7 +2148,7 @@
         <v/>
       </c>
       <c r="H11">
-        <f>SUMIF(Выплаты!F:F,G11,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G11,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I11">
@@ -2176,7 +2176,7 @@
         <v>27000</v>
       </c>
       <c r="E12" t="n">
-        <v>23490</v>
+        <v>234900</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v/>
       </c>
       <c r="H12">
-        <f>SUMIF(Выплаты!F:F,G12,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G12,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I12">
@@ -2228,7 +2228,7 @@
         <v/>
       </c>
       <c r="H13">
-        <f>SUMIF(Выплаты!F:F,G13,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G13,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I13">
@@ -2256,7 +2256,7 @@
         <v>34000</v>
       </c>
       <c r="E14" t="n">
-        <v>9135</v>
+        <v>91350</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v/>
       </c>
       <c r="H14">
-        <f>SUMIF(Выплаты!F:F,G14,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G14,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I14">
@@ -2308,7 +2308,7 @@
         <v/>
       </c>
       <c r="H15">
-        <f>SUMIF(Выплаты!F:F,G15,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G15,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I15">
@@ -2336,7 +2336,7 @@
         <v>26500</v>
       </c>
       <c r="E16" t="n">
-        <v>13050</v>
+        <v>130500</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v/>
       </c>
       <c r="H16">
-        <f>SUMIF(Выплаты!F:F,G16,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G16,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I16">
@@ -2388,7 +2388,7 @@
         <v/>
       </c>
       <c r="H17">
-        <f>SUMIF(Выплаты!F:F,G17,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G17,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I17">
@@ -2416,7 +2416,7 @@
         <v>20000</v>
       </c>
       <c r="E18" t="n">
-        <v>21750</v>
+        <v>217500</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v/>
       </c>
       <c r="H18">
-        <f>SUMIF(Выплаты!F:F,G18,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G18,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I18">
@@ -2468,7 +2468,7 @@
         <v/>
       </c>
       <c r="H19">
-        <f>SUMIF(Выплаты!F:F,G19,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G19,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I19">
@@ -2496,7 +2496,7 @@
         <v>10000</v>
       </c>
       <c r="E20" t="n">
-        <v>17400</v>
+        <v>44000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v/>
       </c>
       <c r="H20">
-        <f>SUMIF(Выплаты!F:F,G20,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G20,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I20">
@@ -2548,7 +2548,7 @@
         <v/>
       </c>
       <c r="H21">
-        <f>SUMIF(Выплаты!F:F,G21,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G21,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I21">
@@ -2576,7 +2576,7 @@
         <v>21000</v>
       </c>
       <c r="E22" t="n">
-        <v>19575</v>
+        <v>195750</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v/>
       </c>
       <c r="H22">
-        <f>SUMIF(Выплаты!F:F,G22,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G22,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I22">
@@ -2628,7 +2628,7 @@
         <v/>
       </c>
       <c r="H23">
-        <f>SUMIF(Выплаты!F:F,G23,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G23,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I23">
@@ -2656,7 +2656,7 @@
         <v>35000</v>
       </c>
       <c r="E24" t="n">
-        <v>34000</v>
+        <v>340000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v/>
       </c>
       <c r="H24">
-        <f>SUMIF(Выплаты!F:F,G24,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G24,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I24">
@@ -2689,14 +2689,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>главный аналитик</t>
+          <t>агент рекламный</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>22500</v>
       </c>
       <c r="E25" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v/>
       </c>
       <c r="H25">
-        <f>SUMIF(Выплаты!F:F,G25,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G25,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I25">
@@ -2736,7 +2736,7 @@
         <v>8700</v>
       </c>
       <c r="E26" t="n">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v/>
       </c>
       <c r="H26">
-        <f>SUMIF(Выплаты!F:F,G26,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G26,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I26">
@@ -2776,7 +2776,7 @@
         <v>9100</v>
       </c>
       <c r="E27" t="n">
-        <v>13572</v>
+        <v>135720</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v/>
       </c>
       <c r="H27">
-        <f>SUMIF(Выплаты!F:F,G27,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G27,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I27">
@@ -2809,14 +2809,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>агент рекламный</t>
+          <t>главный аналитик</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>8800</v>
       </c>
       <c r="E28" t="n">
-        <v>15573</v>
+        <v>155730</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v/>
       </c>
       <c r="H28">
-        <f>SUMIF(Выплаты!F:F,G28,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G28,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I28">
@@ -2868,7 +2868,7 @@
         <v/>
       </c>
       <c r="H29">
-        <f>SUMIF(Выплаты!F:F,G29,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G29,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I29">
@@ -2896,7 +2896,7 @@
         <v>15600</v>
       </c>
       <c r="E30" t="n">
-        <v>9787.5</v>
+        <v>97870</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v/>
       </c>
       <c r="H30">
-        <f>SUMIF(Выплаты!F:F,G30,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G30,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I30">
@@ -2948,7 +2948,7 @@
         <v/>
       </c>
       <c r="H31">
-        <f>SUMIF(Выплаты!F:F,G31,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G31,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I31">
@@ -2976,7 +2976,7 @@
         <v>14300</v>
       </c>
       <c r="E32" t="n">
-        <v>10440</v>
+        <v>104400</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v/>
       </c>
       <c r="H32">
-        <f>SUMIF(Выплаты!F:F,G32,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G32,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I32">
@@ -3028,7 +3028,7 @@
         <v/>
       </c>
       <c r="H33">
-        <f>SUMIF(Выплаты!F:F,G33,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G33,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I33">
@@ -3056,7 +3056,7 @@
         <v>15400</v>
       </c>
       <c r="E34" t="n">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v/>
       </c>
       <c r="H34">
-        <f>SUMIF(Выплаты!F:F,G34,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G34,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I34">
@@ -3108,7 +3108,7 @@
         <v/>
       </c>
       <c r="H35">
-        <f>SUMIF(Выплаты!F:F,G35,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G35,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I35">
@@ -3136,7 +3136,7 @@
         <v>9000</v>
       </c>
       <c r="E36" t="n">
-        <v>35000</v>
+        <v>350000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v/>
       </c>
       <c r="H36">
-        <f>SUMIF(Выплаты!F:F,G36,Выплаты!G:G)</f>
+        <f>SUMIF(Выплаты!G:G,G36,Выплаты!H:H)</f>
         <v/>
       </c>
       <c r="I36">
@@ -3167,7 +3167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,7 +3175,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" width="13" customWidth="1" min="6" max="6"/>
+    <col hidden="1" width="13" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3206,15 +3206,20 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Скрытый ключ</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Сумма оплаты сотруднику</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Сумма остатка по задаче</t>
         </is>
@@ -3246,16 +3251,21 @@
           <t>аналитик</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зарегистрированные выплаты</t>
+        </is>
+      </c>
+      <c r="G2">
         <f>C2&amp;D2&amp;E2</f>
         <v/>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>VLOOKUP(B2,Сотрудники!$A:$F,2,0)+VLOOKUP(B2,Сотрудники!$A:$F,3,0)</f>
         <v/>
       </c>
-      <c r="H2">
-        <f>VLOOKUP(F2,Проекты!$G:$I,3,0)</f>
+      <c r="I2">
+        <f>VLOOKUP(G2,Проекты!$G:$I,3,0)</f>
         <v/>
       </c>
     </row>
@@ -3285,16 +3295,21 @@
           <t>водитель</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зарегистрированные выплаты</t>
+        </is>
+      </c>
+      <c r="G3">
         <f>C3&amp;D3&amp;E3</f>
         <v/>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>VLOOKUP(B3,Сотрудники!$A:$F,2,0)+VLOOKUP(B3,Сотрудники!$A:$F,3,0)</f>
         <v/>
       </c>
-      <c r="H3">
-        <f>VLOOKUP(F3,Проекты!$G:$I,3,0)</f>
+      <c r="I3">
+        <f>VLOOKUP(G3,Проекты!$G:$I,3,0)</f>
         <v/>
       </c>
     </row>
@@ -3324,16 +3339,21 @@
           <t xml:space="preserve">ученый </t>
         </is>
       </c>
-      <c r="F4">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зарегистрированные выплаты</t>
+        </is>
+      </c>
+      <c r="G4">
         <f>C4&amp;D4&amp;E4</f>
         <v/>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>VLOOKUP(B4,Сотрудники!$A:$F,2,0)+VLOOKUP(B4,Сотрудники!$A:$F,3,0)</f>
         <v/>
       </c>
-      <c r="H4">
-        <f>VLOOKUP(F4,Проекты!$G:$I,3,0)</f>
+      <c r="I4">
+        <f>VLOOKUP(G4,Проекты!$G:$I,3,0)</f>
         <v/>
       </c>
     </row>
@@ -3363,55 +3383,549 @@
           <t>капитан</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зарегистрированные выплаты</t>
+        </is>
+      </c>
+      <c r="G5">
         <f>C5&amp;D5&amp;E5</f>
         <v/>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>VLOOKUP(B5,Сотрудники!$A:$F,2,0)+VLOOKUP(B5,Сотрудники!$A:$F,3,0)</f>
         <v/>
       </c>
-      <c r="H5">
-        <f>VLOOKUP(F5,Проекты!$G:$I,3,0)</f>
+      <c r="I5">
+        <f>VLOOKUP(G5,Проекты!$G:$I,3,0)</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-09-08 00:00:00</t>
+          <t>2023-01-01 00:00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Селезнева Екатерина Алексеевна</t>
+          <t>Чувилин Дниил Семенович</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>тестировка мобильных приложений</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IT-специалист</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Зарегистрированные выплаты</t>
+        </is>
+      </c>
+      <c r="G6">
+        <f>C6&amp;D6&amp;E6</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP(B6,Сотрудники!$A:$F,2,0)+VLOOKUP(B6,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(G6,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Иванова Мария Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>АИ</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>бухгалтерия</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>бухгалтер</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Зарегистрированные выплаты</t>
+        </is>
+      </c>
+      <c r="G7">
+        <f>C7&amp;D7&amp;E7</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(B7,Сотрудники!$A:$F,2,0)+VLOOKUP(B7,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP(G7,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Зайцев Павел Михайлович</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>разработка мобильных приложений</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>IT-специалист</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G8">
+        <f>C8&amp;D8&amp;E8</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(B8,Сотрудники!$A:$F,2,0)+VLOOKUP(B8,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP(G8,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Смирнов Макар Русланович</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>разработка мобильных приложений</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IT-специалист</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G9">
+        <f>C9&amp;D9&amp;E9</f>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(B9,Сотрудники!$A:$F,2,0)+VLOOKUP(B9,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP(G9,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Андреев Серафим Игоревич</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>поддерживание техники в рабочем состоянии</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>слесарь</t>
-        </is>
-      </c>
-      <c r="F6">
-        <f>C6&amp;D6&amp;E6</f>
-        <v/>
-      </c>
-      <c r="G6">
-        <f>VLOOKUP(B6,Сотрудники!$A:$F,2,0)+VLOOKUP(B6,Сотрудники!$A:$F,3,0)</f>
-        <v/>
-      </c>
-      <c r="H6">
-        <f>VLOOKUP(F6,Проекты!$G:$I,3,0)</f>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>уборщик</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G10">
+        <f>C10&amp;D10&amp;E10</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(B10,Сотрудники!$A:$F,2,0)+VLOOKUP(B10,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP(G10,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Добрынина Амира Владимировна</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>мониторинг рейтинга и анализ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>агент рекламный</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G11">
+        <f>C11&amp;D11&amp;E11</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(B11,Сотрудники!$A:$F,2,0)+VLOOKUP(B11,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP(G11,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Маркишин Денис Петрович</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>мониторинг рейтинга и анализ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>агент рекламный</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G12">
+        <f>C12&amp;D12&amp;E12</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(B12,Сотрудники!$A:$F,2,0)+VLOOKUP(B12,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP(G12,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Чувилин Дниил Семенович</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>мониторинг рейтинга и анализ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>агент рекламный</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G13">
+        <f>C13&amp;D13&amp;E13</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(B13,Сотрудники!$A:$F,2,0)+VLOOKUP(B13,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP(G13,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Добрынина Амира Владимировна</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>реклама</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>агент рекламный</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G14">
+        <f>C14&amp;D14&amp;E14</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(B14,Сотрудники!$A:$F,2,0)+VLOOKUP(B14,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP(G14,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Маркишин Денис Петрович</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>реклама</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>агент рекламный</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G15">
+        <f>C15&amp;D15&amp;E15</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(B15,Сотрудники!$A:$F,2,0)+VLOOKUP(B15,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(G15,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Чувилин Дниил Семенович</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>реклама</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>агент рекламный</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G16">
+        <f>C16&amp;D16&amp;E16</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP(B16,Сотрудники!$A:$F,2,0)+VLOOKUP(B16,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP(G16,Проекты!$G:$I,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Клюев Марк Максимович</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Пик</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>реклама</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>главный аналитик</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Предлагаемые выплаты</t>
+        </is>
+      </c>
+      <c r="G17">
+        <f>C17&amp;D17&amp;E17</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(B17,Сотрудники!$A:$F,2,0)+VLOOKUP(B17,Сотрудники!$A:$F,3,0)</f>
+        <v/>
+      </c>
+      <c r="I17">
+        <f>VLOOKUP(G17,Проекты!$G:$I,3,0)</f>
         <v/>
       </c>
     </row>
